--- a/자작/BeatFighter/Sheets/MobTable.xlsx
+++ b/자작/BeatFighter/Sheets/MobTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE1B913-80DE-4A9D-A53A-3A18A82D1DFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA17FF97-C7C6-41A3-86FA-2AD9EE3BA086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="MobTable" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MobTable!$A$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MobTable!$A$2:$L$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>$$MobTable$$</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,6 +63,30 @@
   </si>
   <si>
     <t>$vit$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$atkPerLevel$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$defPerLevel$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$vitPerLevel$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$level$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$signPeriod$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$signSpeed$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -130,12 +154,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -419,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -430,12 +457,12 @@
     <col min="1" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -446,16 +473,34 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -469,14 +514,32 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>100</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F2" xr:uid="{0B777DD6-12D1-4FD7-B661-C39968638DD2}"/>
+  <autoFilter ref="A2:L2" xr:uid="{33FBA0E1-0602-4618-8420-B558CB487A47}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/자작/BeatFighter/Sheets/MobTable.xlsx
+++ b/자작/BeatFighter/Sheets/MobTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA17FF97-C7C6-41A3-86FA-2AD9EE3BA086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE7263B-2882-42AF-8E4B-88812B9F3C94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>$$MobTable$$</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$model$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$atk$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -58,10 +54,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Ninja</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$vit$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -87,6 +79,10 @@
   </si>
   <si>
     <t>$signSpeed$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$modelID$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +445,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -470,45 +466,45 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>20000</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
+      <c r="C3" s="1">
+        <v>100</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>

--- a/자작/BeatFighter/Sheets/MobTable.xlsx
+++ b/자작/BeatFighter/Sheets/MobTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE7263B-2882-42AF-8E4B-88812B9F3C94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E20430-92E8-4A42-AAAC-F0030771B8A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="MobTable" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MobTable!$A$2:$L$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MobTable!$A$2:$J$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>$$MobTable$$</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,15 +70,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$level$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$signPeriod$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$signSpeed$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -442,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -453,12 +445,12 @@
     <col min="1" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -466,37 +458,31 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -510,32 +496,26 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>100</v>
+      </c>
+      <c r="G3" s="3">
         <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>100</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
       </c>
       <c r="I3" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" s="3">
-        <v>10</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L3" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:L2" xr:uid="{33FBA0E1-0602-4618-8420-B558CB487A47}"/>
+  <autoFilter ref="A2:J2" xr:uid="{33FBA0E1-0602-4618-8420-B558CB487A47}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
